--- a/15/After_Soc_EEH2.xlsx
+++ b/15/After_Soc_EEH2.xlsx
@@ -17,72 +17,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Extract per1 ShowRes_Start</t>
+    <t>1</t>
   </si>
   <si>
-    <t>Extract per2 SetValue_Start</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Extract per2 ShowRes_Start</t>
+    <t>3</t>
   </si>
   <si>
-    <t>Extract per3 SetValue_Start</t>
+    <t>4</t>
   </si>
   <si>
-    <t>Extract per3 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract per4 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Extract per4 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract per5 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Extract per5 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract end</t>
-  </si>
-  <si>
-    <t>Show res of Extract</t>
-  </si>
-  <si>
-    <t>Contrib per1 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per1 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib per2 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per2 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib per3 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per3 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib per4 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per4 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib per5 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per5 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract per1SetValue_Start</t>
+    <t>5</t>
   </si>
   <si>
     <t>Пашкова Мария</t>
@@ -473,7 +422,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -483,72 +435,114 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
         <v>0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>0.5752074346367781</v>
@@ -667,7 +661,7 @@
     </row>
     <row r="8" spans="1:40">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2.873438089145277</v>
@@ -786,7 +780,7 @@
     </row>
     <row r="9" spans="1:40">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>0.6459608767604941</v>
@@ -905,7 +899,7 @@
     </row>
     <row r="10" spans="1:40">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>0.6646082412638905</v>
@@ -1024,7 +1018,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>1.240623743950381</v>
@@ -1161,7 +1155,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -1171,72 +1168,114 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
         <v>0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>7.261768341582018</v>
@@ -1355,7 +1394,7 @@
     </row>
     <row r="8" spans="1:40">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>7.662106282215625</v>
@@ -1474,7 +1513,7 @@
     </row>
     <row r="9" spans="1:40">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>7.494530695836591</v>
@@ -1593,7 +1632,7 @@
     </row>
     <row r="10" spans="1:40">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>7.5810404017268</v>
@@ -1712,7 +1751,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>6.865274998129289</v>
@@ -1849,7 +1888,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -1859,72 +1901,114 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
         <v>0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>0.7122628990984694</v>
@@ -2043,7 +2127,7 @@
     </row>
     <row r="8" spans="1:40">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>0.759455426217831</v>
@@ -2162,7 +2246,7 @@
     </row>
     <row r="9" spans="1:40">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>0.7099368147991689</v>
@@ -2281,7 +2365,7 @@
     </row>
     <row r="10" spans="1:40">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>0.7074834319116055</v>
@@ -2400,7 +2484,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>0.7465797123277391</v>

--- a/15/After_Soc_EEH2.xlsx
+++ b/15/After_Soc_EEH2.xlsx
@@ -17,72 +17,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Extract per1 ShowRes_Start</t>
+    <t>1</t>
   </si>
   <si>
-    <t>Extract per2 SetValue_Start</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Extract per2 ShowRes_Start</t>
+    <t>3</t>
   </si>
   <si>
-    <t>Extract per3 SetValue_Start</t>
+    <t>4</t>
   </si>
   <si>
-    <t>Extract per3 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract per4 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Extract per4 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract per5 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Extract per5 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract end</t>
-  </si>
-  <si>
-    <t>Show res of Extract</t>
-  </si>
-  <si>
-    <t>Contrib per1 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per1 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib per2 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per2 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib per3 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per3 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib per4 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per4 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib per5 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per5 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract per1SetValue_Start</t>
+    <t>5</t>
   </si>
   <si>
     <t>Пашкова Мария</t>
@@ -473,7 +422,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -483,662 +435,704 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
         <v>0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5752074346367781</v>
+        <v>0.575207434636726</v>
       </c>
       <c r="D7" t="n">
-        <v>1.011385960368834</v>
+        <v>1.011385960368867</v>
       </c>
       <c r="E7" t="n">
-        <v>1.742260930568047</v>
+        <v>1.742260930567925</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5054440933114424</v>
+        <v>0.5054440933115573</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3253744890967696</v>
+        <v>0.3253744890963696</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1351713954385661</v>
+        <v>0.1351713954386058</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09474978111775195</v>
+        <v>0.09474978111774431</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1442069127003857</v>
+        <v>0.144206912700693</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2060836748725517</v>
+        <v>0.206083674872838</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9093137165085107</v>
+        <v>0.9093137165076403</v>
       </c>
       <c r="M7" t="n">
-        <v>1.417847395993697</v>
+        <v>1.417847395993752</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3149238143787963</v>
+        <v>0.3149238143789486</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3995021577942036</v>
+        <v>0.3995021577940966</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3213805768382578</v>
+        <v>0.3213805768382415</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5119813507517834</v>
+        <v>0.511981350751716</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2257914183784847</v>
+        <v>0.2257914183784971</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3103797476350193</v>
+        <v>0.3103797476350638</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2652906906440994</v>
+        <v>0.2652906906439633</v>
       </c>
       <c r="U7" t="n">
-        <v>2.601844535676366</v>
+        <v>2.601844535676006</v>
       </c>
       <c r="V7" t="n">
-        <v>3.106189070754392</v>
+        <v>3.106189070754907</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4989522714219226</v>
+        <v>0.4989522714221635</v>
       </c>
       <c r="X7" t="n">
-        <v>0.425856749455098</v>
+        <v>0.4258567494551371</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5272351064866814</v>
+        <v>0.5272351064867843</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.08005753129598826</v>
+        <v>0.08005753129614247</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.21846872422492</v>
+        <v>0.2184687242250112</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.716290712498747</v>
+        <v>3.716290712498709</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.4645491845216516</v>
+        <v>0.4645491845216752</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.377762730130566</v>
+        <v>1.377762730130621</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9902547772387547</v>
+        <v>0.9902547772385786</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.465627808819485</v>
+        <v>2.465627808819311</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6204689408572037</v>
+        <v>0.6204689408571623</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.4188098574445905</v>
+        <v>0.4188098574444569</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.2751529682386196</v>
+        <v>0.2751529682384982</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2809006951249075</v>
+        <v>0.2809006951247634</v>
       </c>
       <c r="AK7" t="n">
         <v>1.101922025133006</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.5543567191059596</v>
+        <v>0.5543567191059052</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.4812343983584684</v>
+        <v>0.4812343983585101</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.3056341287849937</v>
+        <v>0.3056341287855073</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2.873438089145277</v>
+        <v>2.873438089145086</v>
       </c>
       <c r="D8" t="n">
-        <v>1.959406646452009</v>
+        <v>1.959406646452354</v>
       </c>
       <c r="E8" t="n">
-        <v>5.476676856163191</v>
+        <v>5.476676856165056</v>
       </c>
       <c r="F8" t="n">
-        <v>2.070730115478717</v>
+        <v>2.070730115478638</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2173460355151639</v>
+        <v>0.2173460355152726</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1210063455422204</v>
+        <v>0.1210063455423069</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2426904649872721</v>
+        <v>0.2426904649871805</v>
       </c>
       <c r="J8" t="n">
-        <v>2.062322562325305</v>
+        <v>2.062322562325249</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5008608074086006</v>
+        <v>0.5008608074079796</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6013291354150515</v>
+        <v>0.6013291354148744</v>
       </c>
       <c r="M8" t="n">
-        <v>2.429713092882867</v>
+        <v>2.429713092882201</v>
       </c>
       <c r="N8" t="n">
-        <v>2.819230766293697</v>
+        <v>2.819230766293862</v>
       </c>
       <c r="O8" t="n">
-        <v>2.5211155971377</v>
+        <v>2.521115597138426</v>
       </c>
       <c r="P8" t="n">
-        <v>0.718141482585958</v>
+        <v>0.7181414825862489</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9052802516125202</v>
+        <v>0.905280251614081</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5301693613837468</v>
+        <v>0.5301693613829839</v>
       </c>
       <c r="S8" t="n">
-        <v>0.802488276335207</v>
+        <v>0.8024882763354473</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3658414054878052</v>
+        <v>0.3658414054875593</v>
       </c>
       <c r="U8" t="n">
-        <v>2.963191613623216</v>
+        <v>2.963191613623959</v>
       </c>
       <c r="V8" t="n">
-        <v>6.374967015192916</v>
+        <v>6.37496701519327</v>
       </c>
       <c r="W8" t="n">
-        <v>1.408686408996084</v>
+        <v>1.408686408996058</v>
       </c>
       <c r="X8" t="n">
-        <v>1.045914424930788</v>
+        <v>1.045914424930753</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9937168150312553</v>
+        <v>0.9937168150316182</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5769065259416474</v>
+        <v>0.5769065259412224</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.063010904067109</v>
+        <v>1.063010904067526</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.471038104095737</v>
+        <v>1.471038104095621</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.7143470649462591</v>
+        <v>0.7143470649465047</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.3702109142693763</v>
+        <v>0.3702109142694383</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.874077334473437</v>
+        <v>2.874077334473408</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.870064446838664</v>
+        <v>1.87006444683792</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.106879431286265</v>
+        <v>2.106879431286425</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.700125580383349</v>
+        <v>3.70012558038378</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6167803725546426</v>
+        <v>0.6167803725547093</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.8283950576843125</v>
+        <v>0.8283950576846512</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.171920214551919</v>
+        <v>3.171920214551988</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.5831629624199752</v>
+        <v>0.583162962420431</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.822628705723231</v>
+        <v>0.8226287057234133</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.9526143199707939</v>
+        <v>0.9526143199707142</v>
       </c>
     </row>
     <row r="9" spans="1:40">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6459608767604941</v>
+        <v>0.6459608767605095</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1175694873929898</v>
+        <v>0.1175694873929295</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1196958898298716</v>
+        <v>0.119695889830176</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1529489960466603</v>
+        <v>0.1529489960466311</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1781086862145368</v>
+        <v>0.1781086862144727</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1147980338572219</v>
+        <v>0.1147980338572238</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1922813128088305</v>
+        <v>0.1922813128087831</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1388014159419912</v>
+        <v>0.1388014159421405</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1987070577377868</v>
+        <v>0.1987070577378189</v>
       </c>
       <c r="L9" t="n">
-        <v>1.204398308402787</v>
+        <v>1.204398308402744</v>
       </c>
       <c r="M9" t="n">
-        <v>1.738939812668764</v>
+        <v>1.738939812668942</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2424765670678035</v>
+        <v>0.2424765670677196</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1537945245972601</v>
+        <v>0.1537945245972518</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1501164913935187</v>
+        <v>0.1501164913936133</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.156017035411969</v>
+        <v>0.1560170354120117</v>
       </c>
       <c r="R9" t="n">
-        <v>0.151681167774686</v>
+        <v>0.1516811677747362</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3436108916353951</v>
+        <v>0.3436108916354815</v>
       </c>
       <c r="T9" t="n">
-        <v>0.250417147399505</v>
+        <v>0.2504171473994918</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4412830134655645</v>
+        <v>0.4412830134662782</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8205962425759689</v>
+        <v>0.8205962425762282</v>
       </c>
       <c r="W9" t="n">
-        <v>0.110076239840558</v>
+        <v>0.110076239840551</v>
       </c>
       <c r="X9" t="n">
-        <v>0.09274991302440612</v>
+        <v>0.09274991302417895</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.08414413038774958</v>
+        <v>0.08414413038779647</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1117617653736643</v>
+        <v>0.1117617653739802</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.100363729936</v>
+        <v>1.100363729935695</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.333372205124071</v>
+        <v>0.3333722051241142</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1120888264011185</v>
+        <v>0.1120888264008799</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.103629006926151</v>
+        <v>0.1036290069262387</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1278051239791306</v>
+        <v>0.1278051239792516</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.1392223927213281</v>
+        <v>0.1392223927219221</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0904724971653411</v>
+        <v>0.09047249716530871</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1343317844286633</v>
+        <v>0.1343317844288643</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.125811108266374</v>
+        <v>0.1258111082663655</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.2405689856660556</v>
+        <v>0.2405689856659879</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.1925975960936285</v>
+        <v>0.192597596093476</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.1087347028995209</v>
+        <v>0.1087347028992708</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.144763732346765</v>
+        <v>0.1447637323467741</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.2037265507008638</v>
+        <v>0.2037265507007733</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6646082412638905</v>
+        <v>0.6646082412635259</v>
       </c>
       <c r="D10" t="n">
-        <v>1.143505407308243</v>
+        <v>1.143505407308395</v>
       </c>
       <c r="E10" t="n">
-        <v>1.359796981969559</v>
+        <v>1.359796981969509</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6623256462495144</v>
+        <v>0.6623256462495837</v>
       </c>
       <c r="G10" t="n">
-        <v>0.507190980331174</v>
+        <v>0.507190980331325</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6239303536425467</v>
+        <v>0.6239303536424653</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8716553747828104</v>
+        <v>0.8716553747828676</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7531970292441699</v>
+        <v>0.7531970292442052</v>
       </c>
       <c r="K10" t="n">
-        <v>0.309140666583505</v>
+        <v>0.3091406665834932</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6221198337290913</v>
+        <v>0.6221198337287798</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3568130376442473</v>
+        <v>0.356813037645257</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4067408237079351</v>
+        <v>0.4067408237081332</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6387092772462527</v>
+        <v>0.6387092772468832</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3963911119118229</v>
+        <v>0.3963911119116276</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4489229242205104</v>
+        <v>0.448922924220578</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3741369370698094</v>
+        <v>0.3741369370697966</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4564020029290871</v>
+        <v>0.4564020029290998</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2709131127922556</v>
+        <v>0.270913112792239</v>
       </c>
       <c r="U10" t="n">
-        <v>1.102494565398161</v>
+        <v>1.102494565397471</v>
       </c>
       <c r="V10" t="n">
-        <v>1.08185139387849</v>
+        <v>1.081851393878134</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5272056502197351</v>
+        <v>0.5272056502200148</v>
       </c>
       <c r="X10" t="n">
-        <v>1.551047490949014</v>
+        <v>1.551047490949134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8985132234738114</v>
+        <v>0.898513223473821</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.7618950123094099</v>
+        <v>0.761895012310538</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.5604665683360116</v>
+        <v>0.5604665683360048</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.2525915222962231</v>
+        <v>0.2525915222963703</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.4096745110430376</v>
+        <v>0.4096745110430387</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.3057409234667612</v>
+        <v>0.3057409234670309</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.153649988768129</v>
+        <v>1.153649988767906</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.132789907405585</v>
+        <v>3.13278990740503</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.8896644609226889</v>
+        <v>0.8896644609225993</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.4492648290510534</v>
+        <v>0.4492648290510083</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.9042364680459809</v>
+        <v>0.9042364680458344</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.9393067724736844</v>
+        <v>0.939306772472747</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.588095841289678</v>
+        <v>1.588095841289601</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.8099541302084857</v>
+        <v>0.8099541302085832</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.5121333794503158</v>
+        <v>0.5121333794501972</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.5307210646842137</v>
+        <v>0.5307210646843582</v>
       </c>
     </row>
     <row r="11" spans="1:40">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>1.240623743950381</v>
+        <v>1.240623743950087</v>
       </c>
       <c r="D11" t="n">
-        <v>1.894058519266125</v>
+        <v>1.894058519266191</v>
       </c>
       <c r="E11" t="n">
-        <v>2.210761400452541</v>
+        <v>2.210761400452635</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4933364864388743</v>
+        <v>0.4933364864394805</v>
       </c>
       <c r="G11" t="n">
-        <v>0.884946133275337</v>
+        <v>0.8849461332767277</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5168926699656164</v>
+        <v>0.5168926699655382</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7969109449459021</v>
+        <v>0.7969109449457262</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5856754952910682</v>
+        <v>0.5856754952910441</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4438753759040835</v>
+        <v>0.4438753759041045</v>
       </c>
       <c r="L11" t="n">
-        <v>7.39575715452174</v>
+        <v>7.395757154521958</v>
       </c>
       <c r="M11" t="n">
-        <v>39.80626751828368</v>
+        <v>39.80626751828387</v>
       </c>
       <c r="N11" t="n">
-        <v>6.283619981833494</v>
+        <v>6.283619981833523</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5516248203709568</v>
+        <v>0.5516248203708056</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6562851642491317</v>
+        <v>0.6562851642492523</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.42997614262881</v>
+        <v>13.42997614262814</v>
       </c>
       <c r="R11" t="n">
-        <v>8.344595924665727</v>
+        <v>8.344595924665846</v>
       </c>
       <c r="S11" t="n">
-        <v>1.384387082993814</v>
+        <v>1.384387082993998</v>
       </c>
       <c r="T11" t="n">
-        <v>1.928386137051473</v>
+        <v>1.928386137051558</v>
       </c>
       <c r="U11" t="n">
-        <v>3.924507974953875</v>
+        <v>3.92450797495414</v>
       </c>
       <c r="V11" t="n">
-        <v>7.217853972761679</v>
+        <v>7.217853972762078</v>
       </c>
       <c r="W11" t="n">
-        <v>2.190204634125787</v>
+        <v>2.190204634125605</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7699429518752342</v>
+        <v>0.7699429518758348</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.4769075310303412</v>
+        <v>0.4769075310303963</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3641276292638613</v>
+        <v>0.364127629263888</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5583382794442008</v>
+        <v>0.558338279444046</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.427600899021363</v>
+        <v>1.427600899022754</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.652892283079054</v>
+        <v>2.652892283078846</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.220324525609501</v>
+        <v>1.22032452560938</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.9295663113186008</v>
+        <v>0.9295663113186404</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.24749619296733</v>
+        <v>13.24749619296767</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.989694435072391</v>
+        <v>1.989694435072387</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.1186221645174342</v>
+        <v>0.118622164517662</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.436649163411188</v>
+        <v>6.436649163411192</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.5920910628642854</v>
+        <v>0.5920910628642421</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.5272531838910892</v>
+        <v>0.5272531838913835</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.08827510945887629</v>
+        <v>0.08827510945889379</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1804780851887364</v>
+        <v>0.1804780851888313</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.3503446213969304</v>
+        <v>0.3503446213969409</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1155,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -1171,72 +1168,114 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
         <v>0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>7.261768341582018</v>
@@ -1269,7 +1308,7 @@
         <v>5.67780808072383</v>
       </c>
       <c r="M7" t="n">
-        <v>6.15432926056693</v>
+        <v>6.140536157118655</v>
       </c>
       <c r="N7" t="n">
         <v>8.631549974046452</v>
@@ -1355,7 +1394,7 @@
     </row>
     <row r="8" spans="1:40">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>7.662106282215625</v>
@@ -1385,7 +1424,7 @@
         <v>7.169925001442332</v>
       </c>
       <c r="L8" t="n">
-        <v>8.925193113088866</v>
+        <v>8.921738881655362</v>
       </c>
       <c r="M8" t="n">
         <v>6.538455956545344</v>
@@ -1442,7 +1481,7 @@
         <v>6.533312255932943</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.736880136809036</v>
+        <v>6.741586019161979</v>
       </c>
       <c r="AF8" t="n">
         <v>6.012479890745565</v>
@@ -1474,7 +1513,7 @@
     </row>
     <row r="9" spans="1:40">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>7.494530695836591</v>
@@ -1501,7 +1540,7 @@
         <v>8.596659742619957</v>
       </c>
       <c r="K9" t="n">
-        <v>7.137697990403019</v>
+        <v>7.150855885139861</v>
       </c>
       <c r="L9" t="n">
         <v>7.659134325200534</v>
@@ -1579,7 +1618,7 @@
         <v>7.635779266938877</v>
       </c>
       <c r="AK9" t="n">
-        <v>9.302340222727262</v>
+        <v>9.305585335225098</v>
       </c>
       <c r="AL9" t="n">
         <v>8.438450046936268</v>
@@ -1588,12 +1627,12 @@
         <v>9.723480522138223</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.602887121524493</v>
+        <v>8.608863016323113</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>7.5810404017268</v>
@@ -1620,13 +1659,13 @@
         <v>8.250971096792965</v>
       </c>
       <c r="K10" t="n">
-        <v>7.234428094887368</v>
+        <v>7.246928094887368</v>
       </c>
       <c r="L10" t="n">
         <v>8.556133702438325</v>
       </c>
       <c r="M10" t="n">
-        <v>6.680813428089384</v>
+        <v>6.699331946607902</v>
       </c>
       <c r="N10" t="n">
         <v>7.850271569726496</v>
@@ -1712,7 +1751,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>6.865274998129289</v>
@@ -1730,7 +1769,7 @@
         <v>6.885612630996953</v>
       </c>
       <c r="H11" t="n">
-        <v>8.649995061266383</v>
+        <v>8.648882101667068</v>
       </c>
       <c r="I11" t="n">
         <v>7.221611723969882</v>
@@ -1760,7 +1799,7 @@
         <v>5.276710113434414</v>
       </c>
       <c r="R11" t="n">
-        <v>5.020361007915882</v>
+        <v>5.029062078189153</v>
       </c>
       <c r="S11" t="n">
         <v>4.577854894342868</v>
@@ -1849,7 +1888,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -1859,662 +1901,704 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
         <v>0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7122628990984694</v>
+        <v>0.7122628990983462</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7852493920558197</v>
+        <v>0.7852493920558142</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5788542762832883</v>
+        <v>0.5788542762832882</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6928005894430542</v>
+        <v>0.6928005894423243</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5724318946777653</v>
+        <v>0.5724318946777432</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7051499290605321</v>
+        <v>0.7051499290598238</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6571821675150671</v>
+        <v>0.6571821675134688</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6218615051125401</v>
+        <v>0.6218615051145528</v>
       </c>
       <c r="K7" t="n">
-        <v>0.598858679962729</v>
+        <v>0.5988586799630731</v>
       </c>
       <c r="L7" t="n">
-        <v>0.60264428443658</v>
+        <v>0.60264428443667</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5768649575156997</v>
+        <v>0.5768649575157024</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6111767598285043</v>
+        <v>0.6111767598285249</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5786889337997587</v>
+        <v>0.5786889337997517</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6662901198911617</v>
+        <v>0.6662901198911423</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5758591062462465</v>
+        <v>0.5758591062462329</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5880003282247259</v>
+        <v>0.5880003282246948</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6509447403497335</v>
+        <v>0.6509447403498931</v>
       </c>
       <c r="T7" t="n">
-        <v>0.571121841160473</v>
+        <v>0.5711218411604951</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6881028435855051</v>
+        <v>0.6881028435864004</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5735612964928412</v>
+        <v>0.5735612964928408</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6529846355949306</v>
+        <v>0.6529846355948157</v>
       </c>
       <c r="X7" t="n">
-        <v>0.629847924164075</v>
+        <v>0.6298479241640628</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.749580258629271</v>
+        <v>0.7495802586292272</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6288471865435762</v>
+        <v>0.6288471865422682</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7454958521767799</v>
+        <v>0.7454958521766442</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6208876190053128</v>
+        <v>0.6208876190053126</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6741356027134314</v>
+        <v>0.6741356027136369</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6262899834032934</v>
+        <v>0.6262899834032885</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7385278587525251</v>
+        <v>0.7385278587525216</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.6181539650019734</v>
+        <v>0.6181539650019737</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6026848573752934</v>
+        <v>0.6026848573752938</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6272289870598871</v>
+        <v>0.6272289870598777</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.61290226080692</v>
+        <v>0.6129022608069044</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.684527524021196</v>
+        <v>0.6845275240211319</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6018442007938102</v>
+        <v>0.6018442007938026</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.6924568865629727</v>
+        <v>0.6924568865655826</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.6174595222209236</v>
+        <v>0.6174595222209375</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.6135975090008177</v>
+        <v>0.6135975090007647</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.759455426217831</v>
+        <v>0.7594554262177652</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6955804542774595</v>
+        <v>0.6955804542774563</v>
       </c>
       <c r="E8" t="n">
-        <v>0.587957326391516</v>
+        <v>0.5879573263915092</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7206750960207482</v>
+        <v>0.7206750960206993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5819061056165638</v>
+        <v>0.5819061056162639</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6540565967292816</v>
+        <v>0.654056596727935</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5808583553161808</v>
+        <v>0.5808583553161726</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7666411238448435</v>
+        <v>0.7666411238447329</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6042731446138113</v>
+        <v>0.6042731446148181</v>
       </c>
       <c r="L8" t="n">
-        <v>0.707968800351672</v>
+        <v>0.7079688003514708</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7065514435685628</v>
+        <v>0.7065514435675757</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5660268520876979</v>
+        <v>0.5660268520877009</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5750407871311137</v>
+        <v>0.5750407871311191</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7181444112792049</v>
+        <v>0.7181444112792557</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5805932773376149</v>
+        <v>0.5805932773375737</v>
       </c>
       <c r="R8" t="n">
-        <v>0.605730318091478</v>
+        <v>0.6057303180913366</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5926612814539282</v>
+        <v>0.5926612814539788</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6846564481347801</v>
+        <v>0.6846564481348747</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7328973510818801</v>
+        <v>0.7328973510818679</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5757794136505545</v>
+        <v>0.5757794136505515</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7831003485083341</v>
+        <v>0.7831003485083378</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7224503372111146</v>
+        <v>0.7224503372105852</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.605534081278247</v>
+        <v>0.6055340812782161</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6242162909745707</v>
+        <v>0.6242162909745353</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7362364659044192</v>
+        <v>0.7362364659044569</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6292666595835359</v>
+        <v>0.6292666595835199</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.6877513466215354</v>
+        <v>0.6877513466214211</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6455640960533042</v>
+        <v>0.6455640960534571</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.6043381049135912</v>
+        <v>0.6043381049136023</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.6278472519381582</v>
+        <v>0.6278472519381427</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7399033431145732</v>
+        <v>0.739903343114571</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.6315481251126197</v>
+        <v>0.6315481251126168</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6319494816483094</v>
+        <v>0.6319494816482993</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.6239281105698465</v>
+        <v>0.6239281105699669</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.7242819825229101</v>
+        <v>0.7242819825229254</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6245925371756506</v>
+        <v>0.6245925371756221</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.6479696211599739</v>
+        <v>0.6479696211600157</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.7382082158221803</v>
+        <v>0.7382082158221578</v>
       </c>
     </row>
     <row r="9" spans="1:40">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7099368147991689</v>
+        <v>0.7099368147992386</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5881010460697502</v>
+        <v>0.5881010460699463</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6219441628953599</v>
+        <v>0.6219441628935822</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6805869981124515</v>
+        <v>0.6805869981150551</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5762181938622758</v>
+        <v>0.5762181938620189</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6806660014277278</v>
+        <v>0.6806660014286803</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5831812373856908</v>
+        <v>0.5831812373843336</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5778571200192026</v>
+        <v>0.5778571200198316</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5746094186133655</v>
+        <v>0.5746094186134727</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5744624798438366</v>
+        <v>0.5744624798443143</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5691103820356718</v>
+        <v>0.5691103820356722</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5590697602642766</v>
+        <v>0.5590697602642858</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5701891106236145</v>
+        <v>0.5701891106205339</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6445534580358584</v>
+        <v>0.6445534580367385</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7163168022889834</v>
+        <v>0.7163168022896881</v>
       </c>
       <c r="R9" t="n">
-        <v>0.649398999818948</v>
+        <v>0.6493989998188454</v>
       </c>
       <c r="S9" t="n">
-        <v>0.640875069688993</v>
+        <v>0.6408750696860298</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5569828022503908</v>
+        <v>0.5569828022503434</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6823763086903016</v>
+        <v>0.682376308688296</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6763883396729518</v>
+        <v>0.6763883396727889</v>
       </c>
       <c r="W9" t="n">
-        <v>0.7269048013127887</v>
+        <v>0.7269048013125147</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6074549915743006</v>
+        <v>0.6074549915747045</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6255856725857362</v>
+        <v>0.6255856725864386</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7361853481872582</v>
+        <v>0.7361853481884711</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7328380861876383</v>
+        <v>0.7328380861878475</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6277136142911811</v>
+        <v>0.6277136142911783</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6076669720566061</v>
+        <v>0.6076669720558806</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6282709413083201</v>
+        <v>0.628270941309598</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.5991712539215334</v>
+        <v>0.5991712539206356</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6108514425676861</v>
+        <v>0.6108514425674801</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.6357686314480144</v>
+        <v>0.6357686314522302</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.6184916293445336</v>
+        <v>0.6184916293435625</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.5975262940850999</v>
+        <v>0.597526294085491</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6233487320770138</v>
+        <v>0.6233487320769785</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.640084033792146</v>
+        <v>0.6400840337923361</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6608190002460881</v>
+        <v>0.6608190002480901</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.6623021583784278</v>
+        <v>0.6623021583788388</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.6474423456105791</v>
+        <v>0.6474423456106394</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7074834319116055</v>
+        <v>0.7074834319117358</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7383760247739923</v>
+        <v>0.7383760247739916</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6046323787166448</v>
+        <v>0.6046323787166484</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7496020690103152</v>
+        <v>0.7496020690102202</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7469971863212163</v>
+        <v>0.7469971863213148</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7093917113271635</v>
+        <v>0.7093917113270877</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6239078657078556</v>
+        <v>0.6239078657079598</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7068185088197403</v>
+        <v>0.7068185088197764</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6099205673500309</v>
+        <v>0.6099205673501015</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7188405167667276</v>
+        <v>0.7188405167668029</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6035502012847832</v>
+        <v>0.6035502012846883</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7476296922574708</v>
+        <v>0.7476296922576317</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7238733728169168</v>
+        <v>0.7238733728168668</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6439559275358411</v>
+        <v>0.6439559275358169</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7373577973679537</v>
+        <v>0.7373577973680052</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6848959154089423</v>
+        <v>0.6848959154087826</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7497708969216943</v>
+        <v>0.7497708969222058</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5659610719315961</v>
+        <v>0.5659610719312645</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7029595931123745</v>
+        <v>0.7029595931124801</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5843767481407455</v>
+        <v>0.5843767481407645</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7657015596309593</v>
+        <v>0.7657015596309029</v>
       </c>
       <c r="X10" t="n">
-        <v>0.6197244259347858</v>
+        <v>0.6197244259347802</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7091535045364802</v>
+        <v>0.7091535045365224</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6401529071485036</v>
+        <v>0.6401529071482044</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.71666643343425</v>
+        <v>0.7166664334342036</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6924402926446376</v>
+        <v>0.6924402926427066</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7304540502885757</v>
+        <v>0.7304540502885076</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.6264798959561856</v>
+        <v>0.626479895956235</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6044673842016017</v>
+        <v>0.6044673842016374</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.6285564228243153</v>
+        <v>0.6285564228243058</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6307127540150749</v>
+        <v>0.6307127540150376</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.7217168966056196</v>
+        <v>0.7217168966047007</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6052222498208256</v>
+        <v>0.6052222498207638</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6271231850003108</v>
+        <v>0.6271231850003981</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.7044812672747345</v>
+        <v>0.7044812672747779</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.625759294776653</v>
+        <v>0.6257592947766721</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.7117085371279558</v>
+        <v>0.7117085371278999</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.711784888417719</v>
+        <v>0.7117848884180276</v>
       </c>
     </row>
     <row r="11" spans="1:40">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7465797123277391</v>
+        <v>0.7465797123276129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7679898720099989</v>
+        <v>0.7679898720099712</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5855656336405077</v>
+        <v>0.5855656336405098</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7118159919078867</v>
+        <v>0.7118159919074961</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6428235852785033</v>
+        <v>0.6428235852784607</v>
       </c>
       <c r="H11" t="n">
-        <v>0.680527668577087</v>
+        <v>0.6805276685772719</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5771082063750315</v>
+        <v>0.5771082063750456</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7321878237553845</v>
+        <v>0.7321878237553884</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7388479858657668</v>
+        <v>0.7388479858656731</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6737096666323918</v>
+        <v>0.6737096666324331</v>
       </c>
       <c r="M11" t="n">
         <v>0.583695263621112</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5602048298920975</v>
+        <v>0.5602048298920965</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6140675557510615</v>
+        <v>0.6140675557492696</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5642511806698249</v>
+        <v>0.5642511806698217</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6658260451832606</v>
+        <v>0.6658260451831752</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5631423436767441</v>
+        <v>0.5631423436767442</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6394398274590559</v>
+        <v>0.6394398274585427</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6523477992384668</v>
+        <v>0.6523477992384815</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7504754086411048</v>
+        <v>0.7504754086409875</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5641840782634792</v>
+        <v>0.564184078263481</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6644356173224489</v>
+        <v>0.6644356173224507</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6161033426980678</v>
+        <v>0.6161033426980184</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7263226051295946</v>
+        <v>0.7263226051294912</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.616121825148639</v>
+        <v>0.6161218251487277</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7419126033275967</v>
+        <v>0.741912603327595</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6720920358212832</v>
+        <v>0.6720920358210998</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6813542377695555</v>
+        <v>0.6813542377695683</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.682773058156123</v>
+        <v>0.6827730581560482</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.7257494127630481</v>
+        <v>0.7257494127630447</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6270119868500346</v>
+        <v>0.6270119868500615</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.5901503492423594</v>
+        <v>0.5901503492423611</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6327883182719493</v>
+        <v>0.6327883182725144</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6012370563134686</v>
+        <v>0.6012370563134684</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.7397575972076545</v>
+        <v>0.7397575972077122</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.5871126827293074</v>
+        <v>0.5871126827293046</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6851932021168183</v>
+        <v>0.6851932021114356</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.6357825980247717</v>
+        <v>0.6357825980248949</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.6384072750456826</v>
+        <v>0.6384072750451902</v>
       </c>
     </row>
   </sheetData>
